--- a/code/資產總額/上市櫃20140106-20141231.xlsx
+++ b/code/資產總額/上市櫃20140106-20141231.xlsx
@@ -1,38 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CGCBOSS\Desktop\資產總額\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewhu/Desktop/Graduate-project/code/資產總額/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C89FF03-1FF3-354A-BA8D-502E63902B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640"/>
+    <workbookView xWindow="28800" yWindow="-6420" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="XX_TEJ1">工作表1!$A$1:$F$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$C$1:$C$202</definedName>
+    <definedName name="XX_TEJ1">工作表1!$A$1:$C$202</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CGCBOSS</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="205">
   <si>
     <t>公司</t>
   </si>
@@ -686,17 +694,20 @@
   </si>
   <si>
     <t>2609 陽明</t>
+  </si>
+  <si>
+    <t>log(assets)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -710,18 +721,24 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -758,7 +775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -786,9 +803,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1065,23 +1085,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F202"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D22 F2:F22 C2:C23 E2:E23 C24:F26 C27:E27 C28:F28 C29:E29 C30:F39 C40:E40 C41:F50 C51:E51 C52:F58 C59:E63 C64:F71 C72:E72 C73:F75 C76:E77 C78:F81 C82:E83 C84:F89 C90:E90 C91:F91 C92:E92 C93:F102 C103:E103 C104:F111 C112:E112 C113:F133 C134:E146 F135:F147 C148:F155 C156:E156 C157:F157 C158:E158 C159:F168 C169:E169 C170:F174 C175:E179 C180:F180 C181:E181 C182:F188 C189:E189 C190:F191 C192:E192 C193:F196 D197:E197 C198:E198 C199:F202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1089,19 +1109,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="8">
-        <v>41729</v>
-      </c>
-      <c r="D1" s="8">
-        <v>41820</v>
-      </c>
-      <c r="E1" s="8">
-        <v>41912</v>
-      </c>
-      <c r="F1" s="8">
         <v>42004</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D1" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1111,17 +1125,8 @@
       <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1131,17 +1136,8 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1151,17 +1147,8 @@
       <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1171,17 +1158,8 @@
       <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1191,17 +1169,8 @@
       <c r="C6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1211,17 +1180,8 @@
       <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1231,17 +1191,8 @@
       <c r="C8" s="3">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1251,17 +1202,8 @@
       <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1271,17 +1213,8 @@
       <c r="C10" s="3">
         <v>0</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1291,17 +1224,8 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1311,17 +1235,8 @@
       <c r="C12" s="3">
         <v>0</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1331,17 +1246,8 @@
       <c r="C13" s="3">
         <v>0</v>
       </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1351,17 +1257,8 @@
       <c r="C14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1371,17 +1268,8 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1391,17 +1279,8 @@
       <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1411,17 +1290,8 @@
       <c r="C17" s="3">
         <v>0</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -1431,17 +1301,8 @@
       <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1451,17 +1312,8 @@
       <c r="C19" s="3">
         <v>0</v>
       </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1471,17 +1323,8 @@
       <c r="C20" s="3">
         <v>0</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1491,17 +1334,8 @@
       <c r="C21" s="3">
         <v>0</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
@@ -1511,37 +1345,23 @@
       <c r="C22" s="3">
         <v>0</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>32567706</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="C23" s="4">
         <v>32930877</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D23">
+        <f>LOG($C23,10)</f>
+        <v>7.5176032967972075</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -1551,17 +1371,8 @@
       <c r="C24" s="3">
         <v>0</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1571,17 +1382,8 @@
       <c r="C25" s="3">
         <v>0</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -1591,37 +1393,23 @@
       <c r="C26" s="3">
         <v>0</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="C27" s="4">
         <v>2453349</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D27">
+        <f>LOG($C27,10)</f>
+        <v>6.3897593329568947</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
@@ -1631,37 +1419,23 @@
       <c r="C28" s="3">
         <v>0</v>
       </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="C29" s="4">
         <v>378750718</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D29">
+        <f>LOG($C29,10)</f>
+        <v>8.5783534648057866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
@@ -1671,17 +1445,8 @@
       <c r="C30" s="3">
         <v>0</v>
       </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -1691,17 +1456,8 @@
       <c r="C31" s="3">
         <v>0</v>
       </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
@@ -1711,17 +1467,8 @@
       <c r="C32" s="3">
         <v>0</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
@@ -1731,17 +1478,8 @@
       <c r="C33" s="3">
         <v>0</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
@@ -1751,17 +1489,8 @@
       <c r="C34" s="3">
         <v>0</v>
       </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
@@ -1771,17 +1500,8 @@
       <c r="C35" s="3">
         <v>0</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -1791,17 +1511,8 @@
       <c r="C36" s="3">
         <v>0</v>
       </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
@@ -1811,17 +1522,8 @@
       <c r="C37" s="3">
         <v>0</v>
       </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
@@ -1831,17 +1533,8 @@
       <c r="C38" s="3">
         <v>0</v>
       </c>
-      <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -1851,37 +1544,23 @@
       <c r="C39" s="3">
         <v>0</v>
       </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="C40" s="4">
         <v>33692626</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D40">
+        <f>LOG($C40,10)</f>
+        <v>7.5275348611700412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
@@ -1891,17 +1570,8 @@
       <c r="C41" s="3">
         <v>0</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
@@ -1911,17 +1581,8 @@
       <c r="C42" s="3">
         <v>0</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
@@ -1931,17 +1592,8 @@
       <c r="C43" s="3">
         <v>0</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
@@ -1951,17 +1603,8 @@
       <c r="C44" s="3">
         <v>0</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
@@ -1971,17 +1614,8 @@
       <c r="C45" s="3">
         <v>0</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -1991,17 +1625,8 @@
       <c r="C46" s="3">
         <v>0</v>
       </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
@@ -2011,17 +1636,8 @@
       <c r="C47" s="3">
         <v>0</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
@@ -2031,17 +1647,8 @@
       <c r="C48" s="3">
         <v>0</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
@@ -2051,17 +1658,8 @@
       <c r="C49" s="3">
         <v>0</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
@@ -2071,37 +1669,23 @@
       <c r="C50" s="3">
         <v>0</v>
       </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
+      <c r="C51" s="4">
         <v>163838274</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D51">
+        <f>LOG($C51,10)</f>
+        <v>8.2144153641234698</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -2111,17 +1695,8 @@
       <c r="C52" s="3">
         <v>0</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>54</v>
       </c>
@@ -2131,17 +1706,8 @@
       <c r="C53" s="3">
         <v>0</v>
       </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>55</v>
       </c>
@@ -2151,17 +1717,8 @@
       <c r="C54" s="3">
         <v>0</v>
       </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
@@ -2171,17 +1728,8 @@
       <c r="C55" s="3">
         <v>0</v>
       </c>
-      <c r="D55" s="3">
-        <v>0</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
@@ -2191,17 +1739,8 @@
       <c r="C56" s="3">
         <v>0</v>
       </c>
-      <c r="D56" s="3">
-        <v>0</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
@@ -2211,17 +1750,8 @@
       <c r="C57" s="3">
         <v>0</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>59</v>
       </c>
@@ -2231,117 +1761,83 @@
       <c r="C58" s="3">
         <v>0</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="3">
-        <v>0</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
+      <c r="C59" s="4">
         <v>235287520</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D59">
+        <f t="shared" ref="D59:D63" si="0">LOG($C59,10)</f>
+        <v>8.371598892161682</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="3">
-        <v>0</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
+      <c r="C60" s="4">
         <v>530050400</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>8.724317166584223</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="3">
-        <v>0</v>
-      </c>
-      <c r="D61" s="3">
-        <v>0</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
+      <c r="C61" s="4">
         <v>1392390567</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>9.1437610724162397</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="3">
-        <v>0</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
+      <c r="C62" s="4">
         <v>521977917</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>8.7176521299602854</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="3">
-        <v>0</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
+      <c r="C63" s="4">
         <v>802368944</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>8.9043741108019372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
@@ -2351,17 +1847,8 @@
       <c r="C64" s="3">
         <v>0</v>
       </c>
-      <c r="D64" s="3">
-        <v>0</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
@@ -2371,17 +1858,8 @@
       <c r="C65" s="3">
         <v>0</v>
       </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>67</v>
       </c>
@@ -2391,17 +1869,8 @@
       <c r="C66" s="3">
         <v>0</v>
       </c>
-      <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
@@ -2411,17 +1880,8 @@
       <c r="C67" s="3">
         <v>0</v>
       </c>
-      <c r="D67" s="3">
-        <v>0</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>69</v>
       </c>
@@ -2431,17 +1891,8 @@
       <c r="C68" s="3">
         <v>0</v>
       </c>
-      <c r="D68" s="3">
-        <v>0</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>70</v>
       </c>
@@ -2451,17 +1902,8 @@
       <c r="C69" s="3">
         <v>0</v>
       </c>
-      <c r="D69" s="3">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
@@ -2471,17 +1913,8 @@
       <c r="C70" s="3">
         <v>0</v>
       </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
@@ -2491,37 +1924,23 @@
       <c r="C71" s="3">
         <v>0</v>
       </c>
-      <c r="D71" s="3">
-        <v>0</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="3">
-        <v>0</v>
-      </c>
-      <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="4">
+      <c r="C72" s="4">
         <v>299569923</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D72">
+        <f>LOG($C72,10)</f>
+        <v>8.4764982077896427</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>74</v>
       </c>
@@ -2531,17 +1950,8 @@
       <c r="C73" s="3">
         <v>0</v>
       </c>
-      <c r="D73" s="3">
-        <v>0</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>75</v>
       </c>
@@ -2551,17 +1961,8 @@
       <c r="C74" s="3">
         <v>0</v>
       </c>
-      <c r="D74" s="3">
-        <v>0</v>
-      </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>76</v>
       </c>
@@ -2571,57 +1972,38 @@
       <c r="C75" s="3">
         <v>0</v>
       </c>
-      <c r="D75" s="3">
-        <v>0</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="3">
-        <v>0</v>
-      </c>
-      <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="4">
+      <c r="C76" s="4">
         <v>21970630</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D76">
+        <f t="shared" ref="D76:D77" si="1">LOG($C76,10)</f>
+        <v>7.3418425103388429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="3">
-        <v>0</v>
-      </c>
-      <c r="D77" s="3">
-        <v>0</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="4">
+      <c r="C77" s="4">
         <v>42417481</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>7.6275448739805665</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>79</v>
       </c>
@@ -2631,17 +2013,8 @@
       <c r="C78" s="3">
         <v>0</v>
       </c>
-      <c r="D78" s="3">
-        <v>0</v>
-      </c>
-      <c r="E78" s="3">
-        <v>0</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>80</v>
       </c>
@@ -2651,17 +2024,8 @@
       <c r="C79" s="3">
         <v>0</v>
       </c>
-      <c r="D79" s="3">
-        <v>0</v>
-      </c>
-      <c r="E79" s="3">
-        <v>0</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>81</v>
       </c>
@@ -2671,17 +2035,8 @@
       <c r="C80" s="3">
         <v>0</v>
       </c>
-      <c r="D80" s="3">
-        <v>0</v>
-      </c>
-      <c r="E80" s="3">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>82</v>
       </c>
@@ -2691,57 +2046,38 @@
       <c r="C81" s="3">
         <v>0</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
-      </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="3">
-        <v>0</v>
-      </c>
-      <c r="D82" s="3">
-        <v>0</v>
-      </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-      <c r="F82" s="4">
+      <c r="C82" s="4">
         <v>95867313</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D82">
+        <f t="shared" ref="D82:D83" si="2">LOG($C82,10)</f>
+        <v>7.9816705549959162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="3">
-        <v>0</v>
-      </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="4">
+      <c r="C83" s="4">
         <v>27038223</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D83">
+        <f t="shared" si="2"/>
+        <v>7.4319781456034031</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>85</v>
       </c>
@@ -2751,17 +2087,8 @@
       <c r="C84" s="3">
         <v>0</v>
       </c>
-      <c r="D84" s="3">
-        <v>0</v>
-      </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>86</v>
       </c>
@@ -2771,17 +2098,8 @@
       <c r="C85" s="3">
         <v>0</v>
       </c>
-      <c r="D85" s="3">
-        <v>0</v>
-      </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>87</v>
       </c>
@@ -2791,17 +2109,8 @@
       <c r="C86" s="3">
         <v>0</v>
       </c>
-      <c r="D86" s="3">
-        <v>0</v>
-      </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>88</v>
       </c>
@@ -2811,17 +2120,8 @@
       <c r="C87" s="3">
         <v>0</v>
       </c>
-      <c r="D87" s="3">
-        <v>0</v>
-      </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>89</v>
       </c>
@@ -2831,17 +2131,8 @@
       <c r="C88" s="3">
         <v>0</v>
       </c>
-      <c r="D88" s="3">
-        <v>0</v>
-      </c>
-      <c r="E88" s="3">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>90</v>
       </c>
@@ -2851,37 +2142,23 @@
       <c r="C89" s="3">
         <v>0</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="3">
-        <v>0</v>
-      </c>
-      <c r="D90" s="3">
-        <v>0</v>
-      </c>
-      <c r="E90" s="3">
-        <v>0</v>
-      </c>
-      <c r="F90" s="4">
+      <c r="C90" s="4">
         <v>3913438</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D90">
+        <f>LOG($C90,10)</f>
+        <v>6.5925584577493161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -2891,37 +2168,23 @@
       <c r="C91" s="3">
         <v>0</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="3">
-        <v>0</v>
-      </c>
-      <c r="D92" s="3">
-        <v>0</v>
-      </c>
-      <c r="E92" s="3">
-        <v>0</v>
-      </c>
-      <c r="F92" s="4">
+      <c r="C92" s="4">
         <v>1958121</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D92">
+        <f>LOG($C92,10)</f>
+        <v>6.2918395250609143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
@@ -2931,17 +2194,8 @@
       <c r="C93" s="3">
         <v>0</v>
       </c>
-      <c r="D93" s="3">
-        <v>0</v>
-      </c>
-      <c r="E93" s="3">
-        <v>0</v>
-      </c>
-      <c r="F93" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -2951,17 +2205,8 @@
       <c r="C94" s="3">
         <v>0</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
@@ -2971,17 +2216,8 @@
       <c r="C95" s="3">
         <v>0</v>
       </c>
-      <c r="D95" s="3">
-        <v>0</v>
-      </c>
-      <c r="E95" s="3">
-        <v>0</v>
-      </c>
-      <c r="F95" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>97</v>
       </c>
@@ -2991,17 +2227,8 @@
       <c r="C96" s="3">
         <v>0</v>
       </c>
-      <c r="D96" s="3">
-        <v>0</v>
-      </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>98</v>
       </c>
@@ -3011,17 +2238,8 @@
       <c r="C97" s="3">
         <v>0</v>
       </c>
-      <c r="D97" s="3">
-        <v>0</v>
-      </c>
-      <c r="E97" s="3">
-        <v>0</v>
-      </c>
-      <c r="F97" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>99</v>
       </c>
@@ -3031,17 +2249,8 @@
       <c r="C98" s="3">
         <v>0</v>
       </c>
-      <c r="D98" s="3">
-        <v>0</v>
-      </c>
-      <c r="E98" s="3">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>100</v>
       </c>
@@ -3051,17 +2260,8 @@
       <c r="C99" s="3">
         <v>0</v>
       </c>
-      <c r="D99" s="3">
-        <v>0</v>
-      </c>
-      <c r="E99" s="3">
-        <v>0</v>
-      </c>
-      <c r="F99" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>101</v>
       </c>
@@ -3071,17 +2271,8 @@
       <c r="C100" s="3">
         <v>0</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>102</v>
       </c>
@@ -3091,17 +2282,8 @@
       <c r="C101" s="3">
         <v>0</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>103</v>
       </c>
@@ -3111,37 +2293,23 @@
       <c r="C102" s="3">
         <v>0</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C103" s="3">
-        <v>0</v>
-      </c>
-      <c r="D103" s="3">
-        <v>0</v>
-      </c>
-      <c r="E103" s="3">
-        <v>0</v>
-      </c>
-      <c r="F103" s="4">
+      <c r="C103" s="4">
         <v>21196971</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D103">
+        <f>LOG($C103,10)</f>
+        <v>7.3262738056471166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>105</v>
       </c>
@@ -3151,17 +2319,8 @@
       <c r="C104" s="3">
         <v>0</v>
       </c>
-      <c r="D104" s="3">
-        <v>0</v>
-      </c>
-      <c r="E104" s="3">
-        <v>0</v>
-      </c>
-      <c r="F104" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>106</v>
       </c>
@@ -3171,17 +2330,8 @@
       <c r="C105" s="3">
         <v>0</v>
       </c>
-      <c r="D105" s="3">
-        <v>0</v>
-      </c>
-      <c r="E105" s="3">
-        <v>0</v>
-      </c>
-      <c r="F105" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>107</v>
       </c>
@@ -3191,17 +2341,8 @@
       <c r="C106" s="3">
         <v>0</v>
       </c>
-      <c r="D106" s="3">
-        <v>0</v>
-      </c>
-      <c r="E106" s="3">
-        <v>0</v>
-      </c>
-      <c r="F106" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>108</v>
       </c>
@@ -3211,17 +2352,8 @@
       <c r="C107" s="3">
         <v>0</v>
       </c>
-      <c r="D107" s="3">
-        <v>0</v>
-      </c>
-      <c r="E107" s="3">
-        <v>0</v>
-      </c>
-      <c r="F107" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>109</v>
       </c>
@@ -3231,17 +2363,8 @@
       <c r="C108" s="3">
         <v>0</v>
       </c>
-      <c r="D108" s="3">
-        <v>0</v>
-      </c>
-      <c r="E108" s="3">
-        <v>0</v>
-      </c>
-      <c r="F108" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>110</v>
       </c>
@@ -3251,17 +2374,8 @@
       <c r="C109" s="3">
         <v>0</v>
       </c>
-      <c r="D109" s="3">
-        <v>0</v>
-      </c>
-      <c r="E109" s="3">
-        <v>0</v>
-      </c>
-      <c r="F109" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>111</v>
       </c>
@@ -3271,17 +2385,8 @@
       <c r="C110" s="3">
         <v>0</v>
       </c>
-      <c r="D110" s="3">
-        <v>0</v>
-      </c>
-      <c r="E110" s="3">
-        <v>0</v>
-      </c>
-      <c r="F110" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>112</v>
       </c>
@@ -3291,37 +2396,23 @@
       <c r="C111" s="3">
         <v>0</v>
       </c>
-      <c r="D111" s="3">
-        <v>0</v>
-      </c>
-      <c r="E111" s="3">
-        <v>0</v>
-      </c>
-      <c r="F111" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="3">
-        <v>0</v>
-      </c>
-      <c r="D112" s="3">
-        <v>0</v>
-      </c>
-      <c r="E112" s="3">
-        <v>0</v>
-      </c>
-      <c r="F112" s="4">
+      <c r="C112" s="4">
         <v>1982921</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D112">
+        <f>LOG($C112,10)</f>
+        <v>6.2973054121642003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>114</v>
       </c>
@@ -3331,17 +2422,8 @@
       <c r="C113" s="3">
         <v>0</v>
       </c>
-      <c r="D113" s="3">
-        <v>0</v>
-      </c>
-      <c r="E113" s="3">
-        <v>0</v>
-      </c>
-      <c r="F113" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>115</v>
       </c>
@@ -3351,17 +2433,8 @@
       <c r="C114" s="3">
         <v>0</v>
       </c>
-      <c r="D114" s="3">
-        <v>0</v>
-      </c>
-      <c r="E114" s="3">
-        <v>0</v>
-      </c>
-      <c r="F114" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>116</v>
       </c>
@@ -3371,17 +2444,8 @@
       <c r="C115" s="3">
         <v>0</v>
       </c>
-      <c r="D115" s="3">
-        <v>0</v>
-      </c>
-      <c r="E115" s="3">
-        <v>0</v>
-      </c>
-      <c r="F115" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>117</v>
       </c>
@@ -3391,17 +2455,8 @@
       <c r="C116" s="3">
         <v>0</v>
       </c>
-      <c r="D116" s="3">
-        <v>0</v>
-      </c>
-      <c r="E116" s="3">
-        <v>0</v>
-      </c>
-      <c r="F116" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>118</v>
       </c>
@@ -3411,17 +2466,8 @@
       <c r="C117" s="3">
         <v>0</v>
       </c>
-      <c r="D117" s="3">
-        <v>0</v>
-      </c>
-      <c r="E117" s="3">
-        <v>0</v>
-      </c>
-      <c r="F117" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>119</v>
       </c>
@@ -3431,17 +2477,8 @@
       <c r="C118" s="3">
         <v>0</v>
       </c>
-      <c r="D118" s="3">
-        <v>0</v>
-      </c>
-      <c r="E118" s="3">
-        <v>0</v>
-      </c>
-      <c r="F118" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>120</v>
       </c>
@@ -3451,17 +2488,8 @@
       <c r="C119" s="3">
         <v>0</v>
       </c>
-      <c r="D119" s="3">
-        <v>0</v>
-      </c>
-      <c r="E119" s="3">
-        <v>0</v>
-      </c>
-      <c r="F119" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>121</v>
       </c>
@@ -3471,17 +2499,8 @@
       <c r="C120" s="3">
         <v>0</v>
       </c>
-      <c r="D120" s="3">
-        <v>0</v>
-      </c>
-      <c r="E120" s="3">
-        <v>0</v>
-      </c>
-      <c r="F120" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>122</v>
       </c>
@@ -3491,17 +2510,8 @@
       <c r="C121" s="3">
         <v>0</v>
       </c>
-      <c r="D121" s="3">
-        <v>0</v>
-      </c>
-      <c r="E121" s="3">
-        <v>0</v>
-      </c>
-      <c r="F121" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>123</v>
       </c>
@@ -3511,17 +2521,8 @@
       <c r="C122" s="3">
         <v>0</v>
       </c>
-      <c r="D122" s="3">
-        <v>0</v>
-      </c>
-      <c r="E122" s="3">
-        <v>0</v>
-      </c>
-      <c r="F122" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>124</v>
       </c>
@@ -3531,17 +2532,8 @@
       <c r="C123" s="3">
         <v>0</v>
       </c>
-      <c r="D123" s="3">
-        <v>0</v>
-      </c>
-      <c r="E123" s="3">
-        <v>0</v>
-      </c>
-      <c r="F123" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>125</v>
       </c>
@@ -3551,17 +2543,8 @@
       <c r="C124" s="3">
         <v>0</v>
       </c>
-      <c r="D124" s="3">
-        <v>0</v>
-      </c>
-      <c r="E124" s="3">
-        <v>0</v>
-      </c>
-      <c r="F124" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>126</v>
       </c>
@@ -3571,17 +2554,8 @@
       <c r="C125" s="3">
         <v>0</v>
       </c>
-      <c r="D125" s="3">
-        <v>0</v>
-      </c>
-      <c r="E125" s="3">
-        <v>0</v>
-      </c>
-      <c r="F125" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>127</v>
       </c>
@@ -3591,17 +2565,8 @@
       <c r="C126" s="3">
         <v>0</v>
       </c>
-      <c r="D126" s="3">
-        <v>0</v>
-      </c>
-      <c r="E126" s="3">
-        <v>0</v>
-      </c>
-      <c r="F126" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>128</v>
       </c>
@@ -3611,17 +2576,8 @@
       <c r="C127" s="3">
         <v>0</v>
       </c>
-      <c r="D127" s="3">
-        <v>0</v>
-      </c>
-      <c r="E127" s="3">
-        <v>0</v>
-      </c>
-      <c r="F127" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>129</v>
       </c>
@@ -3631,17 +2587,8 @@
       <c r="C128" s="3">
         <v>0</v>
       </c>
-      <c r="D128" s="3">
-        <v>0</v>
-      </c>
-      <c r="E128" s="3">
-        <v>0</v>
-      </c>
-      <c r="F128" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>130</v>
       </c>
@@ -3651,17 +2598,8 @@
       <c r="C129" s="3">
         <v>0</v>
       </c>
-      <c r="D129" s="3">
-        <v>0</v>
-      </c>
-      <c r="E129" s="3">
-        <v>0</v>
-      </c>
-      <c r="F129" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>131</v>
       </c>
@@ -3671,17 +2609,8 @@
       <c r="C130" s="3">
         <v>0</v>
       </c>
-      <c r="D130" s="3">
-        <v>0</v>
-      </c>
-      <c r="E130" s="3">
-        <v>0</v>
-      </c>
-      <c r="F130" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>132</v>
       </c>
@@ -3691,17 +2620,8 @@
       <c r="C131" s="3">
         <v>0</v>
       </c>
-      <c r="D131" s="3">
-        <v>0</v>
-      </c>
-      <c r="E131" s="3">
-        <v>0</v>
-      </c>
-      <c r="F131" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>133</v>
       </c>
@@ -3711,17 +2631,8 @@
       <c r="C132" s="3">
         <v>0</v>
       </c>
-      <c r="D132" s="3">
-        <v>0</v>
-      </c>
-      <c r="E132" s="3">
-        <v>0</v>
-      </c>
-      <c r="F132" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>134</v>
       </c>
@@ -3731,37 +2642,23 @@
       <c r="C133" s="3">
         <v>0</v>
       </c>
-      <c r="D133" s="3">
-        <v>0</v>
-      </c>
-      <c r="E133" s="3">
-        <v>0</v>
-      </c>
-      <c r="F133" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C134" s="3">
-        <v>0</v>
-      </c>
-      <c r="D134" s="3">
-        <v>0</v>
-      </c>
-      <c r="E134" s="3">
-        <v>0</v>
-      </c>
-      <c r="F134" s="4">
+      <c r="C134" s="4">
         <v>23754176</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D134">
+        <f>LOG($C134,10)</f>
+        <v>7.3757399699326669</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>136</v>
       </c>
@@ -3771,17 +2668,8 @@
       <c r="C135" s="3">
         <v>0</v>
       </c>
-      <c r="D135" s="3">
-        <v>0</v>
-      </c>
-      <c r="E135" s="3">
-        <v>0</v>
-      </c>
-      <c r="F135" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>137</v>
       </c>
@@ -3791,17 +2679,8 @@
       <c r="C136" s="3">
         <v>0</v>
       </c>
-      <c r="D136" s="3">
-        <v>0</v>
-      </c>
-      <c r="E136" s="3">
-        <v>0</v>
-      </c>
-      <c r="F136" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>138</v>
       </c>
@@ -3811,17 +2690,8 @@
       <c r="C137" s="3">
         <v>0</v>
       </c>
-      <c r="D137" s="3">
-        <v>0</v>
-      </c>
-      <c r="E137" s="3">
-        <v>0</v>
-      </c>
-      <c r="F137" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>139</v>
       </c>
@@ -3831,17 +2701,8 @@
       <c r="C138" s="3">
         <v>0</v>
       </c>
-      <c r="D138" s="3">
-        <v>0</v>
-      </c>
-      <c r="E138" s="3">
-        <v>0</v>
-      </c>
-      <c r="F138" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>140</v>
       </c>
@@ -3851,17 +2712,8 @@
       <c r="C139" s="3">
         <v>0</v>
       </c>
-      <c r="D139" s="3">
-        <v>0</v>
-      </c>
-      <c r="E139" s="3">
-        <v>0</v>
-      </c>
-      <c r="F139" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>141</v>
       </c>
@@ -3871,17 +2723,8 @@
       <c r="C140" s="3">
         <v>0</v>
       </c>
-      <c r="D140" s="3">
-        <v>0</v>
-      </c>
-      <c r="E140" s="3">
-        <v>0</v>
-      </c>
-      <c r="F140" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>142</v>
       </c>
@@ -3891,17 +2734,8 @@
       <c r="C141" s="3">
         <v>0</v>
       </c>
-      <c r="D141" s="3">
-        <v>0</v>
-      </c>
-      <c r="E141" s="3">
-        <v>0</v>
-      </c>
-      <c r="F141" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>143</v>
       </c>
@@ -3911,17 +2745,8 @@
       <c r="C142" s="3">
         <v>0</v>
       </c>
-      <c r="D142" s="3">
-        <v>0</v>
-      </c>
-      <c r="E142" s="3">
-        <v>0</v>
-      </c>
-      <c r="F142" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>144</v>
       </c>
@@ -3931,17 +2756,8 @@
       <c r="C143" s="3">
         <v>0</v>
       </c>
-      <c r="D143" s="3">
-        <v>0</v>
-      </c>
-      <c r="E143" s="3">
-        <v>0</v>
-      </c>
-      <c r="F143" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>145</v>
       </c>
@@ -3951,17 +2767,8 @@
       <c r="C144" s="3">
         <v>0</v>
       </c>
-      <c r="D144" s="3">
-        <v>0</v>
-      </c>
-      <c r="E144" s="3">
-        <v>0</v>
-      </c>
-      <c r="F144" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>146</v>
       </c>
@@ -3971,17 +2778,8 @@
       <c r="C145" s="3">
         <v>0</v>
       </c>
-      <c r="D145" s="3">
-        <v>0</v>
-      </c>
-      <c r="E145" s="3">
-        <v>0</v>
-      </c>
-      <c r="F145" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>147</v>
       </c>
@@ -3991,37 +2789,19 @@
       <c r="C146" s="3">
         <v>0</v>
       </c>
-      <c r="D146" s="3">
-        <v>0</v>
-      </c>
-      <c r="E146" s="3">
-        <v>0</v>
-      </c>
-      <c r="F146" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C147" s="4">
-        <v>21476693</v>
-      </c>
-      <c r="D147" s="4">
-        <v>24264378</v>
-      </c>
-      <c r="E147" s="4">
-        <v>23687876</v>
-      </c>
-      <c r="F147" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>149</v>
       </c>
@@ -4031,17 +2811,8 @@
       <c r="C148" s="3">
         <v>0</v>
       </c>
-      <c r="D148" s="3">
-        <v>0</v>
-      </c>
-      <c r="E148" s="3">
-        <v>0</v>
-      </c>
-      <c r="F148" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>150</v>
       </c>
@@ -4051,17 +2822,8 @@
       <c r="C149" s="3">
         <v>0</v>
       </c>
-      <c r="D149" s="3">
-        <v>0</v>
-      </c>
-      <c r="E149" s="3">
-        <v>0</v>
-      </c>
-      <c r="F149" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>151</v>
       </c>
@@ -4071,17 +2833,8 @@
       <c r="C150" s="3">
         <v>0</v>
       </c>
-      <c r="D150" s="3">
-        <v>0</v>
-      </c>
-      <c r="E150" s="3">
-        <v>0</v>
-      </c>
-      <c r="F150" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>152</v>
       </c>
@@ -4091,17 +2844,8 @@
       <c r="C151" s="3">
         <v>0</v>
       </c>
-      <c r="D151" s="3">
-        <v>0</v>
-      </c>
-      <c r="E151" s="3">
-        <v>0</v>
-      </c>
-      <c r="F151" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>153</v>
       </c>
@@ -4111,17 +2855,8 @@
       <c r="C152" s="3">
         <v>0</v>
       </c>
-      <c r="D152" s="3">
-        <v>0</v>
-      </c>
-      <c r="E152" s="3">
-        <v>0</v>
-      </c>
-      <c r="F152" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>154</v>
       </c>
@@ -4131,17 +2866,8 @@
       <c r="C153" s="3">
         <v>0</v>
       </c>
-      <c r="D153" s="3">
-        <v>0</v>
-      </c>
-      <c r="E153" s="3">
-        <v>0</v>
-      </c>
-      <c r="F153" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>155</v>
       </c>
@@ -4151,17 +2877,8 @@
       <c r="C154" s="3">
         <v>0</v>
       </c>
-      <c r="D154" s="3">
-        <v>0</v>
-      </c>
-      <c r="E154" s="3">
-        <v>0</v>
-      </c>
-      <c r="F154" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>156</v>
       </c>
@@ -4171,37 +2888,23 @@
       <c r="C155" s="3">
         <v>0</v>
       </c>
-      <c r="D155" s="3">
-        <v>0</v>
-      </c>
-      <c r="E155" s="3">
-        <v>0</v>
-      </c>
-      <c r="F155" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C156" s="3">
-        <v>0</v>
-      </c>
-      <c r="D156" s="3">
-        <v>0</v>
-      </c>
-      <c r="E156" s="3">
-        <v>0</v>
-      </c>
-      <c r="F156" s="4">
+      <c r="C156" s="4">
         <v>532880438</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D156">
+        <f>LOG($C156,10)</f>
+        <v>8.7266297776164201</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>158</v>
       </c>
@@ -4211,37 +2914,23 @@
       <c r="C157" s="3">
         <v>0</v>
       </c>
-      <c r="D157" s="3">
-        <v>0</v>
-      </c>
-      <c r="E157" s="3">
-        <v>0</v>
-      </c>
-      <c r="F157" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C158" s="3">
-        <v>0</v>
-      </c>
-      <c r="D158" s="3">
-        <v>0</v>
-      </c>
-      <c r="E158" s="3">
-        <v>0</v>
-      </c>
-      <c r="F158" s="4">
+      <c r="C158" s="4">
         <v>496604290</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D158">
+        <f>LOG($C158,10)</f>
+        <v>8.6960104669609528</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>160</v>
       </c>
@@ -4251,17 +2940,8 @@
       <c r="C159" s="3">
         <v>0</v>
       </c>
-      <c r="D159" s="3">
-        <v>0</v>
-      </c>
-      <c r="E159" s="3">
-        <v>0</v>
-      </c>
-      <c r="F159" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>161</v>
       </c>
@@ -4271,17 +2951,8 @@
       <c r="C160" s="3">
         <v>0</v>
       </c>
-      <c r="D160" s="3">
-        <v>0</v>
-      </c>
-      <c r="E160" s="3">
-        <v>0</v>
-      </c>
-      <c r="F160" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>162</v>
       </c>
@@ -4291,17 +2962,8 @@
       <c r="C161" s="3">
         <v>0</v>
       </c>
-      <c r="D161" s="3">
-        <v>0</v>
-      </c>
-      <c r="E161" s="3">
-        <v>0</v>
-      </c>
-      <c r="F161" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>163</v>
       </c>
@@ -4311,17 +2973,8 @@
       <c r="C162" s="3">
         <v>0</v>
       </c>
-      <c r="D162" s="3">
-        <v>0</v>
-      </c>
-      <c r="E162" s="3">
-        <v>0</v>
-      </c>
-      <c r="F162" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>164</v>
       </c>
@@ -4331,17 +2984,8 @@
       <c r="C163" s="3">
         <v>0</v>
       </c>
-      <c r="D163" s="3">
-        <v>0</v>
-      </c>
-      <c r="E163" s="3">
-        <v>0</v>
-      </c>
-      <c r="F163" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>165</v>
       </c>
@@ -4351,17 +2995,8 @@
       <c r="C164" s="3">
         <v>0</v>
       </c>
-      <c r="D164" s="3">
-        <v>0</v>
-      </c>
-      <c r="E164" s="3">
-        <v>0</v>
-      </c>
-      <c r="F164" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>166</v>
       </c>
@@ -4371,17 +3006,8 @@
       <c r="C165" s="3">
         <v>0</v>
       </c>
-      <c r="D165" s="3">
-        <v>0</v>
-      </c>
-      <c r="E165" s="3">
-        <v>0</v>
-      </c>
-      <c r="F165" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>167</v>
       </c>
@@ -4391,17 +3017,8 @@
       <c r="C166" s="3">
         <v>0</v>
       </c>
-      <c r="D166" s="3">
-        <v>0</v>
-      </c>
-      <c r="E166" s="3">
-        <v>0</v>
-      </c>
-      <c r="F166" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>168</v>
       </c>
@@ -4411,17 +3028,8 @@
       <c r="C167" s="3">
         <v>0</v>
       </c>
-      <c r="D167" s="3">
-        <v>0</v>
-      </c>
-      <c r="E167" s="3">
-        <v>0</v>
-      </c>
-      <c r="F167" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>169</v>
       </c>
@@ -4431,37 +3039,23 @@
       <c r="C168" s="3">
         <v>0</v>
       </c>
-      <c r="D168" s="3">
-        <v>0</v>
-      </c>
-      <c r="E168" s="3">
-        <v>0</v>
-      </c>
-      <c r="F168" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C169" s="3">
-        <v>0</v>
-      </c>
-      <c r="D169" s="3">
-        <v>0</v>
-      </c>
-      <c r="E169" s="3">
-        <v>0</v>
-      </c>
-      <c r="F169" s="4">
+      <c r="C169" s="4">
         <v>607814722</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D169">
+        <f>LOG($C169,10)</f>
+        <v>8.7837712150034335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>171</v>
       </c>
@@ -4471,17 +3065,8 @@
       <c r="C170" s="3">
         <v>0</v>
       </c>
-      <c r="D170" s="3">
-        <v>0</v>
-      </c>
-      <c r="E170" s="3">
-        <v>0</v>
-      </c>
-      <c r="F170" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>172</v>
       </c>
@@ -4491,17 +3076,8 @@
       <c r="C171" s="3">
         <v>0</v>
       </c>
-      <c r="D171" s="3">
-        <v>0</v>
-      </c>
-      <c r="E171" s="3">
-        <v>0</v>
-      </c>
-      <c r="F171" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>173</v>
       </c>
@@ -4511,17 +3087,8 @@
       <c r="C172" s="3">
         <v>0</v>
       </c>
-      <c r="D172" s="3">
-        <v>0</v>
-      </c>
-      <c r="E172" s="3">
-        <v>0</v>
-      </c>
-      <c r="F172" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>174</v>
       </c>
@@ -4531,17 +3098,8 @@
       <c r="C173" s="3">
         <v>0</v>
       </c>
-      <c r="D173" s="3">
-        <v>0</v>
-      </c>
-      <c r="E173" s="3">
-        <v>0</v>
-      </c>
-      <c r="F173" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>175</v>
       </c>
@@ -4551,117 +3109,83 @@
       <c r="C174" s="3">
         <v>0</v>
       </c>
-      <c r="D174" s="3">
-        <v>0</v>
-      </c>
-      <c r="E174" s="3">
-        <v>0</v>
-      </c>
-      <c r="F174" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C175" s="3">
-        <v>0</v>
-      </c>
-      <c r="D175" s="3">
-        <v>0</v>
-      </c>
-      <c r="E175" s="3">
-        <v>0</v>
-      </c>
-      <c r="F175" s="4">
+      <c r="C175" s="4">
         <v>501660707</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D175">
+        <f t="shared" ref="D175:D179" si="3">LOG($C175,10)</f>
+        <v>8.7004100858765341</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C176" s="3">
-        <v>0</v>
-      </c>
-      <c r="D176" s="3">
-        <v>0</v>
-      </c>
-      <c r="E176" s="3">
-        <v>0</v>
-      </c>
-      <c r="F176" s="4">
+      <c r="C176" s="4">
         <v>1815872967</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D176">
+        <f t="shared" si="3"/>
+        <v>9.2590854633146762</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C177" s="3">
-        <v>0</v>
-      </c>
-      <c r="D177" s="3">
-        <v>0</v>
-      </c>
-      <c r="E177" s="3">
-        <v>0</v>
-      </c>
-      <c r="F177" s="4">
+      <c r="C177" s="4">
         <v>1107267895</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D177">
+        <f t="shared" si="3"/>
+        <v>9.0442527078206041</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C178" s="3">
-        <v>0</v>
-      </c>
-      <c r="D178" s="3">
-        <v>0</v>
-      </c>
-      <c r="E178" s="3">
-        <v>0</v>
-      </c>
-      <c r="F178" s="4">
+      <c r="C178" s="4">
         <v>2259951646</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D178">
+        <f t="shared" si="3"/>
+        <v>9.354099147067739</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C179" s="3">
-        <v>0</v>
-      </c>
-      <c r="D179" s="3">
-        <v>0</v>
-      </c>
-      <c r="E179" s="3">
-        <v>0</v>
-      </c>
-      <c r="F179" s="4">
+      <c r="C179" s="4">
         <v>5438357764</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D179">
+        <f t="shared" si="3"/>
+        <v>9.7354677743842899</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>181</v>
       </c>
@@ -4671,37 +3195,23 @@
       <c r="C180" s="3">
         <v>0</v>
       </c>
-      <c r="D180" s="3">
-        <v>0</v>
-      </c>
-      <c r="E180" s="3">
-        <v>0</v>
-      </c>
-      <c r="F180" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C181" s="3">
-        <v>0</v>
-      </c>
-      <c r="D181" s="3">
-        <v>0</v>
-      </c>
-      <c r="E181" s="3">
-        <v>0</v>
-      </c>
-      <c r="F181" s="4">
+      <c r="C181" s="4">
         <v>919701218</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D181">
+        <f>LOG($C181,10)</f>
+        <v>8.9636467616401418</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>183</v>
       </c>
@@ -4711,17 +3221,8 @@
       <c r="C182" s="3">
         <v>0</v>
       </c>
-      <c r="D182" s="3">
-        <v>0</v>
-      </c>
-      <c r="E182" s="3">
-        <v>0</v>
-      </c>
-      <c r="F182" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>184</v>
       </c>
@@ -4731,17 +3232,8 @@
       <c r="C183" s="3">
         <v>0</v>
       </c>
-      <c r="D183" s="3">
-        <v>0</v>
-      </c>
-      <c r="E183" s="3">
-        <v>0</v>
-      </c>
-      <c r="F183" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>185</v>
       </c>
@@ -4751,17 +3243,8 @@
       <c r="C184" s="3">
         <v>0</v>
       </c>
-      <c r="D184" s="3">
-        <v>0</v>
-      </c>
-      <c r="E184" s="3">
-        <v>0</v>
-      </c>
-      <c r="F184" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>186</v>
       </c>
@@ -4771,17 +3254,8 @@
       <c r="C185" s="3">
         <v>0</v>
       </c>
-      <c r="D185" s="3">
-        <v>0</v>
-      </c>
-      <c r="E185" s="3">
-        <v>0</v>
-      </c>
-      <c r="F185" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>187</v>
       </c>
@@ -4791,17 +3265,8 @@
       <c r="C186" s="3">
         <v>0</v>
       </c>
-      <c r="D186" s="3">
-        <v>0</v>
-      </c>
-      <c r="E186" s="3">
-        <v>0</v>
-      </c>
-      <c r="F186" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>188</v>
       </c>
@@ -4811,17 +3276,8 @@
       <c r="C187" s="3">
         <v>0</v>
       </c>
-      <c r="D187" s="3">
-        <v>0</v>
-      </c>
-      <c r="E187" s="3">
-        <v>0</v>
-      </c>
-      <c r="F187" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>189</v>
       </c>
@@ -4831,37 +3287,23 @@
       <c r="C188" s="3">
         <v>0</v>
       </c>
-      <c r="D188" s="3">
-        <v>0</v>
-      </c>
-      <c r="E188" s="3">
-        <v>0</v>
-      </c>
-      <c r="F188" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C189" s="3">
-        <v>0</v>
-      </c>
-      <c r="D189" s="3">
-        <v>0</v>
-      </c>
-      <c r="E189" s="3">
-        <v>0</v>
-      </c>
-      <c r="F189" s="4">
+      <c r="C189" s="4">
         <v>2355708683</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D189">
+        <f>LOG($C189,10)</f>
+        <v>9.3721215827245281</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>191</v>
       </c>
@@ -4871,17 +3313,8 @@
       <c r="C190" s="3">
         <v>0</v>
       </c>
-      <c r="D190" s="3">
-        <v>0</v>
-      </c>
-      <c r="E190" s="3">
-        <v>0</v>
-      </c>
-      <c r="F190" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>192</v>
       </c>
@@ -4891,37 +3324,23 @@
       <c r="C191" s="3">
         <v>0</v>
       </c>
-      <c r="D191" s="3">
-        <v>0</v>
-      </c>
-      <c r="E191" s="3">
-        <v>0</v>
-      </c>
-      <c r="F191" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C192" s="3">
-        <v>0</v>
-      </c>
-      <c r="D192" s="3">
-        <v>0</v>
-      </c>
-      <c r="E192" s="3">
-        <v>0</v>
-      </c>
-      <c r="F192" s="4">
+      <c r="C192" s="4">
         <v>153539693</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D192">
+        <f>LOG($C192,10)</f>
+        <v>8.1862206679072802</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>194</v>
       </c>
@@ -4931,17 +3350,8 @@
       <c r="C193" s="3">
         <v>0</v>
       </c>
-      <c r="D193" s="3">
-        <v>0</v>
-      </c>
-      <c r="E193" s="3">
-        <v>0</v>
-      </c>
-      <c r="F193" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>195</v>
       </c>
@@ -4951,17 +3361,8 @@
       <c r="C194" s="3">
         <v>0</v>
       </c>
-      <c r="D194" s="3">
-        <v>0</v>
-      </c>
-      <c r="E194" s="3">
-        <v>0</v>
-      </c>
-      <c r="F194" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>196</v>
       </c>
@@ -4971,17 +3372,8 @@
       <c r="C195" s="3">
         <v>0</v>
       </c>
-      <c r="D195" s="3">
-        <v>0</v>
-      </c>
-      <c r="E195" s="3">
-        <v>0</v>
-      </c>
-      <c r="F195" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>197</v>
       </c>
@@ -4991,17 +3383,8 @@
       <c r="C196" s="3">
         <v>0</v>
       </c>
-      <c r="D196" s="3">
-        <v>0</v>
-      </c>
-      <c r="E196" s="3">
-        <v>0</v>
-      </c>
-      <c r="F196" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>198</v>
       </c>
@@ -5009,39 +3392,29 @@
         <v>3</v>
       </c>
       <c r="C197" s="4">
-        <v>945429678</v>
-      </c>
-      <c r="D197" s="3">
-        <v>0</v>
-      </c>
-      <c r="E197" s="3">
-        <v>0</v>
-      </c>
-      <c r="F197" s="4">
         <v>1542223626</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D197">
+        <f t="shared" ref="D197:D198" si="4">LOG($C197,10)</f>
+        <v>9.1881473519874337</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C198" s="3">
-        <v>0</v>
-      </c>
-      <c r="D198" s="3">
-        <v>0</v>
-      </c>
-      <c r="E198" s="3">
-        <v>0</v>
-      </c>
-      <c r="F198" s="4">
+      <c r="C198" s="4">
         <v>3082165206</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D198">
+        <f t="shared" si="4"/>
+        <v>9.4888559134645778</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>200</v>
       </c>
@@ -5051,17 +3424,8 @@
       <c r="C199" s="3">
         <v>0</v>
       </c>
-      <c r="D199" s="3">
-        <v>0</v>
-      </c>
-      <c r="E199" s="3">
-        <v>0</v>
-      </c>
-      <c r="F199" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>201</v>
       </c>
@@ -5071,17 +3435,8 @@
       <c r="C200" s="3">
         <v>0</v>
       </c>
-      <c r="D200" s="3">
-        <v>0</v>
-      </c>
-      <c r="E200" s="3">
-        <v>0</v>
-      </c>
-      <c r="F200" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>202</v>
       </c>
@@ -5091,17 +3446,8 @@
       <c r="C201" s="3">
         <v>0</v>
       </c>
-      <c r="D201" s="3">
-        <v>0</v>
-      </c>
-      <c r="E201" s="3">
-        <v>0</v>
-      </c>
-      <c r="F201" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="202" spans="1:4" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>203</v>
       </c>
@@ -5111,17 +3457,47 @@
       <c r="C202" s="6">
         <v>0</v>
       </c>
-      <c r="D202" s="6">
-        <v>0</v>
-      </c>
-      <c r="E202" s="6">
-        <v>0</v>
-      </c>
-      <c r="F202" s="6">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C202" xr:uid="{B01932C1-03AD-F94C-BACD-090FFCE483ED}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1,107,267,895"/>
+        <filter val="1,392,390,567"/>
+        <filter val="1,542,223,626"/>
+        <filter val="1,815,872,967"/>
+        <filter val="1,958,121"/>
+        <filter val="1,982,921"/>
+        <filter val="153,539,693"/>
+        <filter val="163,838,274"/>
+        <filter val="2,259,951,646"/>
+        <filter val="2,355,708,683"/>
+        <filter val="2,453,349"/>
+        <filter val="21,196,971"/>
+        <filter val="21,970,630"/>
+        <filter val="23,754,176"/>
+        <filter val="235,287,520"/>
+        <filter val="27,038,223"/>
+        <filter val="299,569,923"/>
+        <filter val="3,082,165,206"/>
+        <filter val="3,913,438"/>
+        <filter val="32,930,877"/>
+        <filter val="33,692,626"/>
+        <filter val="378,750,718"/>
+        <filter val="42,417,481"/>
+        <filter val="496,604,290"/>
+        <filter val="5,438,357,764"/>
+        <filter val="501,660,707"/>
+        <filter val="521,977,917"/>
+        <filter val="530,050,400"/>
+        <filter val="532,880,438"/>
+        <filter val="607,814,722"/>
+        <filter val="802,368,944"/>
+        <filter val="919,701,218"/>
+        <filter val="95,867,313"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
